--- a/analysis/pre_gemini_data/participant240_/task_hard.xlsx
+++ b/analysis/pre_gemini_data/participant240_/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,187 +422,183 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>condbody1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>condstat</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condstat3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>except3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>exception2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>exteranl6</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external5</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>extrnal2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
@@ -674,41 +658,33 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
         <v>47</v>
       </c>
-      <c r="G3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>24</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14</v>
-      </c>
-      <c r="K3" t="n">
-        <v>58</v>
-      </c>
       <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -718,36 +694,32 @@
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>6</v>
       </c>
       <c r="AA3" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
@@ -755,18 +727,16 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -779,41 +749,33 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>497</v>
+        <v>334</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>84</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -823,36 +785,32 @@
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="AB4" t="n">
         <v>3</v>
       </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
         <v>1</v>
       </c>
@@ -860,18 +818,16 @@
         <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -884,41 +840,33 @@
         <v>3103.25</v>
       </c>
       <c r="D5" t="n">
-        <v>165813.35</v>
+        <v>108568.37</v>
       </c>
       <c r="E5" t="n">
-        <v>3979.65</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33011</v>
-      </c>
+        <v>1301.43</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>8542.51</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14907.42</v>
-      </c>
+        <v>6215.1</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>18252.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9860.23</v>
-      </c>
+        <v>833.6900000000001</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>40902.27</v>
+        <v>35613.29</v>
       </c>
       <c r="L5" t="n">
-        <v>2828.38</v>
-      </c>
-      <c r="M5" t="n">
-        <v>467.15</v>
-      </c>
+        <v>717.42</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>1985.28</v>
+        <v>1868.54</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>10745.23</v>
+        <v>717.42</v>
       </c>
       <c r="Q5" t="n">
         <v>967.97</v>
@@ -928,36 +876,32 @@
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>2552.74</v>
+        <v>2052.5</v>
       </c>
       <c r="U5" t="n">
-        <v>92406.49000000001</v>
+        <v>43262.18</v>
       </c>
       <c r="V5" t="n">
-        <v>7473.69</v>
+        <v>6973.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1818.5</v>
+        <v>1184.5</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>14256.3</v>
+        <v>13155.36</v>
       </c>
       <c r="Z5" t="n">
         <v>2119.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>98440.25999999999</v>
+        <v>54540.99</v>
       </c>
       <c r="AB5" t="n">
         <v>901.0700000000001</v>
       </c>
-      <c r="AC5" t="n">
-        <v>166.81</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>116.76</v>
-      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
         <v>817.53</v>
       </c>
@@ -965,18 +909,16 @@
         <v>233.82</v>
       </c>
       <c r="AG5" t="n">
-        <v>834.1799999999999</v>
+        <v>717.4400000000001</v>
       </c>
       <c r="AH5" t="n">
         <v>584.01</v>
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="n">
-        <v>7475.24</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>7057.46</v>
-      </c>
+        <v>717.42</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -986,102 +928,88 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="D6" t="n">
-        <v>27.12</v>
+        <v>35.49</v>
       </c>
       <c r="E6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.44</v>
-      </c>
+        <v>2.03</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.61</v>
-      </c>
+        <v>0.27</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>6.69</v>
+        <v>11.64</v>
       </c>
       <c r="L6" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.08</v>
-      </c>
+        <v>0.23</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>0.23</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="R6" t="n">
         <v>37.67</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="U6" t="n">
-        <v>15.11</v>
+        <v>14.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>2.33</v>
+        <v>4.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.1</v>
+        <v>17.83</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.29</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1.15</v>
-      </c>
+        <v>0.23</v>
+      </c>
+      <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1094,41 +1022,33 @@
         <v>344.81</v>
       </c>
       <c r="D7" t="n">
-        <v>333.63</v>
+        <v>325.06</v>
       </c>
       <c r="E7" t="n">
-        <v>497.46</v>
-      </c>
-      <c r="F7" t="n">
-        <v>392.99</v>
-      </c>
+        <v>650.72</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>657.12</v>
-      </c>
-      <c r="H7" t="n">
-        <v>532.41</v>
-      </c>
+        <v>887.87</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>536.84</v>
-      </c>
-      <c r="J7" t="n">
-        <v>518.96</v>
-      </c>
+        <v>416.84</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>352.61</v>
+        <v>359.73</v>
       </c>
       <c r="L7" t="n">
-        <v>471.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>155.72</v>
-      </c>
+        <v>717.42</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>397.06</v>
+        <v>467.13</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>511.68</v>
+        <v>717.42</v>
       </c>
       <c r="Q7" t="n">
         <v>483.98</v>
@@ -1138,36 +1058,32 @@
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>510.55</v>
+        <v>513.12</v>
       </c>
       <c r="U7" t="n">
-        <v>358.16</v>
+        <v>340.65</v>
       </c>
       <c r="V7" t="n">
-        <v>533.83</v>
+        <v>536.42</v>
       </c>
       <c r="W7" t="n">
-        <v>363.7</v>
+        <v>394.83</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>375.17</v>
+        <v>386.92</v>
       </c>
       <c r="Z7" t="n">
         <v>192.65</v>
       </c>
       <c r="AA7" t="n">
-        <v>363.25</v>
+        <v>429.46</v>
       </c>
       <c r="AB7" t="n">
         <v>300.36</v>
       </c>
-      <c r="AC7" t="n">
-        <v>166.81</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>116.76</v>
-      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
         <v>817.53</v>
       </c>
@@ -1175,18 +1091,16 @@
         <v>233.82</v>
       </c>
       <c r="AG7" t="n">
-        <v>417.09</v>
+        <v>717.4400000000001</v>
       </c>
       <c r="AH7" t="n">
         <v>584.01</v>
       </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="n">
-        <v>622.9400000000001</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>588.12</v>
-      </c>
+        <v>717.42</v>
+      </c>
+      <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1204,30 +1118,22 @@
       <c r="E8" t="n">
         <v>584.01</v>
       </c>
-      <c r="F8" t="n">
-        <v>200.24</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>2577.71</v>
       </c>
-      <c r="H8" t="n">
-        <v>383.75</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>116.27</v>
       </c>
-      <c r="J8" t="n">
-        <v>100.14</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>100.13</v>
       </c>
       <c r="L8" t="n">
         <v>717.42</v>
       </c>
-      <c r="M8" t="n">
-        <v>166.81</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>717.4400000000001</v>
       </c>
@@ -1267,12 +1173,8 @@
       <c r="AB8" t="n">
         <v>100.13</v>
       </c>
-      <c r="AC8" t="n">
-        <v>166.81</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>116.76</v>
-      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
         <v>817.53</v>
       </c>
@@ -1289,9 +1191,7 @@
       <c r="AJ8" t="n">
         <v>717.42</v>
       </c>
-      <c r="AK8" t="n">
-        <v>617.3200000000001</v>
-      </c>
+      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1332,84 +1232,6 @@
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
